--- a/Arduino_Buy.xlsx
+++ b/Arduino_Buy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>DHT11 濕度模塊 溫濕度模塊 DHT11 傳感器</t>
   </si>
@@ -287,6 +287,54 @@
   </si>
   <si>
     <t>一路循跡模組 TCRT5000紅外反射感測器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T電子 現貨 Arduino UNO R3 開發板 (相容原廠)送USB線 +10個高亮led+常用零組件+學習課程</t>
+  </si>
+  <si>
+    <t>a32413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單排排針 180度 排針 1x40P 40PIN 2.54mm腳距:2.54mm</t>
+  </si>
+  <si>
+    <t>&lt;T電子&gt;7445N BCD to Decimal Decoders BCD至十進制解碼器/驅動器 DIP封装清倉特價</t>
+  </si>
+  <si>
+    <t>面包板 迷你面包板 實驗板 400孔 8.3cm*5.5 cm</t>
+  </si>
+  <si>
+    <t>T電子 Arduino HC-SR04 超聲波測距模組 避障傳感器 超聲波模組 超聲波傳感器</t>
+  </si>
+  <si>
+    <t>T電子 Arduino UNO R3 開發板外殼 開發板壓克力外殼</t>
+  </si>
+  <si>
+    <t>電子 紅外壁障模塊 光電開關 近接開關 物品感測/黑白線識別 距離可調/Arduino UNO R3</t>
+  </si>
+  <si>
+    <t>&lt;T電子&gt; 土壤濕度計檢測模塊 土壤濕度傳感器 Arduino UNO R3 濕度計 模塊</t>
+  </si>
+  <si>
+    <t>&lt;T電子&gt; 輝盛SG90 Tower Pro 1.8Kg扭力 伺服馬達 舵機 9克伺服機 9g 小型舵機 (S版)</t>
+  </si>
+  <si>
+    <t>&lt;T電子&gt; AC 100V~240VAC轉 DC 9V 1.5A 電源器 穩壓電路 Arduino 實驗板電源</t>
+  </si>
+  <si>
+    <t>T電子 HC-05 藍牙模組 帶底板主/從(master/slave)一體型 Arduino UNO R3 藍</t>
+  </si>
+  <si>
+    <t>&lt;T電子&gt; Micro SD卡模組 SPI介面 TF卡讀寫模塊 有電位元轉換晶片兼容Arduino Uno R3、Le</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,6 +370,23 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -340,10 +405,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -351,9 +417,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -652,22 +729,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.5" customWidth="1"/>
-    <col min="2" max="5" width="9" customWidth="1"/>
+    <col min="1" max="1" width="82.375" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="9" max="10" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
@@ -680,10 +762,13 @@
       <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,105 +778,160 @@
       <c r="E2">
         <v>35</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="G2">
-        <f>B2*F2</f>
+      <c r="H2">
+        <f>B2*G2</f>
         <v>260</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f ca="1">INDIRECT(I2&amp;J2)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>140</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G12" si="0">B3*F3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H12" si="0">B3*G3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f ca="1">INDIRECT(I3&amp;J3)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>180</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="e">
+        <f t="shared" ref="K4:K36" ca="1" si="1">INDIRECT(I4&amp;J4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
         <v>102</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <v>300</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <v>46</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8">
         <v>120</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,60 +941,88 @@
       <c r="E9">
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10">
         <v>112</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11">
         <v>60</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12">
         <v>138</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -864,16 +1032,30 @@
       <c r="E13">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -883,24 +1065,45 @@
       <c r="D15">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -910,8 +1113,15 @@
       <c r="E18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -921,32 +1131,60 @@
       <c r="C19">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="K19" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>21</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E22">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>22</v>
+      </c>
+      <c r="K22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -956,11 +1194,222 @@
       <c r="C23">
         <v>50</v>
       </c>
+      <c r="F23" s="4"/>
+      <c r="J23">
+        <v>23</v>
+      </c>
+      <c r="K23" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="5">
+        <v>219</v>
+      </c>
+      <c r="J24">
+        <v>24</v>
+      </c>
+      <c r="K24" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="5">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>26</v>
+      </c>
+      <c r="K26" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="5">
+        <v>29</v>
+      </c>
+      <c r="J27">
+        <v>27</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="5">
+        <v>35</v>
+      </c>
+      <c r="J28">
+        <v>28</v>
+      </c>
+      <c r="K28" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="5">
+        <v>79</v>
+      </c>
+      <c r="J29">
+        <v>29</v>
+      </c>
+      <c r="K29" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="5">
+        <v>39</v>
+      </c>
+      <c r="J30">
+        <v>30</v>
+      </c>
+      <c r="K30" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="5">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <v>31</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="5">
+        <v>59</v>
+      </c>
+      <c r="J32">
+        <v>32</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="5">
+        <v>69</v>
+      </c>
+      <c r="J33">
+        <v>33</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="5">
+        <v>190</v>
+      </c>
+      <c r="J34">
+        <v>34</v>
+      </c>
+      <c r="K34" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="5">
+        <v>49</v>
+      </c>
+      <c r="J35">
+        <v>35</v>
+      </c>
+      <c r="K35" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>36</v>
+      </c>
+      <c r="K36" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#REF!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A24" r:id="rId1" display="http://goods.ruten.com.tw/item/show?21505383354650"/>
+    <hyperlink ref="A25" r:id="rId2" display="http://goods.ruten.com.tw/item/show?21506446793311"/>
+    <hyperlink ref="A26" r:id="rId3" display="http://goods.ruten.com.tw/item/show?21510541268612"/>
+    <hyperlink ref="A27" r:id="rId4" display="http://goods.ruten.com.tw/item/show?21311093887957"/>
+    <hyperlink ref="A28" r:id="rId5" display="http://goods.ruten.com.tw/item/show?21501141025350"/>
+    <hyperlink ref="A29" r:id="rId6" display="http://goods.ruten.com.tw/item/show?21504366275090"/>
+    <hyperlink ref="A30" r:id="rId7" display="http://goods.ruten.com.tw/item/show?21507472454517"/>
+    <hyperlink ref="A31" r:id="rId8" display="http://goods.ruten.com.tw/item/show?21507482272561"/>
+    <hyperlink ref="A32" r:id="rId9" display="http://goods.ruten.com.tw/item/show?21507488637304"/>
+    <hyperlink ref="A33" r:id="rId10" display="http://goods.ruten.com.tw/item/show?21516009548180"/>
+    <hyperlink ref="A34" r:id="rId11" display="http://goods.ruten.com.tw/item/show?21516065843753"/>
+    <hyperlink ref="A35" r:id="rId12" display="http://goods.ruten.com.tw/item/show?21517098139916"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 
